--- a/revenue-2000-2023-by-operating-segment (copy).xlsx
+++ b/revenue-2000-2023-by-operating-segment (copy).xlsx
@@ -255,13 +255,13 @@
       <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1011" style="0" width="11.52"/>
   </cols>
   <sheetData>

--- a/revenue-2000-2023-by-operating-segment (copy).xlsx
+++ b/revenue-2000-2023-by-operating-segment (copy).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">Wearables, home, and accessories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mac</t>
   </si>
   <si>
     <t xml:space="preserve">2000</t>
@@ -249,15 +252,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.28"/>
@@ -284,10 +287,13 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -296,10 +302,11 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -308,10 +315,11 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -320,10 +328,11 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -332,10 +341,11 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -346,10 +356,11 @@
         <v>1.31</v>
       </c>
       <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -358,10 +369,11 @@
         <v>4.54</v>
       </c>
       <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -370,10 +382,11 @@
         <v>7.68</v>
       </c>
       <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>0.12</v>
@@ -384,10 +397,11 @@
         <v>8.31</v>
       </c>
       <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>1.84</v>
@@ -398,10 +412,11 @@
         <v>9.15</v>
       </c>
       <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>6.75</v>
@@ -412,10 +427,11 @@
         <v>8.09</v>
       </c>
       <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>13.03</v>
@@ -426,10 +442,11 @@
         <v>8.09</v>
       </c>
       <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>47.06</v>
@@ -442,10 +459,11 @@
         <v>7.45</v>
       </c>
       <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>80.48</v>
@@ -458,10 +476,11 @@
         <v>5.62</v>
       </c>
       <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>91.28</v>
@@ -474,10 +493,13 @@
         <v>4.41</v>
       </c>
       <c r="F15" s="1"/>
+      <c r="G15" s="3" t="n">
+        <v>21.48</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>101.99</v>
@@ -490,10 +512,13 @@
         <v>2.29</v>
       </c>
       <c r="F16" s="1"/>
+      <c r="G16" s="3" t="n">
+        <v>24.08</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>155.04</v>
@@ -504,10 +529,13 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
+      <c r="G17" s="3" t="n">
+        <v>23.23</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>136.7</v>
@@ -518,10 +546,13 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
+      <c r="G18" s="3" t="n">
+        <v>22.83</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>144.32</v>
@@ -532,10 +563,13 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
+      <c r="G19" s="3" t="n">
+        <v>25.85</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>166.7</v>
@@ -546,10 +580,13 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
+      <c r="G20" s="3" t="n">
+        <v>25.48</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>142.38</v>
@@ -562,10 +599,13 @@
       <c r="F21" s="3" t="n">
         <v>24.48</v>
       </c>
+      <c r="G21" s="3" t="n">
+        <v>25.74</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>137.78</v>
@@ -578,10 +618,13 @@
       <c r="F22" s="3" t="n">
         <v>30.62</v>
       </c>
+      <c r="G22" s="3" t="n">
+        <v>28.62</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>191.97</v>
@@ -594,10 +637,13 @@
       <c r="F23" s="3" t="n">
         <v>38.37</v>
       </c>
+      <c r="G23" s="3" t="n">
+        <v>35.19</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>205.49</v>
@@ -610,10 +656,13 @@
       <c r="F24" s="3" t="n">
         <v>41.24</v>
       </c>
+      <c r="G24" s="3" t="n">
+        <v>40.18</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>200.58</v>
@@ -625,6 +674,9 @@
       <c r="E25" s="1"/>
       <c r="F25" s="3" t="n">
         <v>39.85</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>29.36</v>
       </c>
     </row>
   </sheetData>
